--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\development_dirs\selenium\selenium_with_py\Assignment-for-4Beats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\development_dirs\Assignment-for-4Beats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -35,6 +35,62 @@
   </si>
   <si>
     <t>Shortest Option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword </t>
+  </si>
+  <si>
+    <t>dhaka</t>
+  </si>
+  <si>
+    <t>ঢাকা মেডিকেল কলেজ হাসপাতাল
+সরকারি হাসপাতাল, ঢাকা, বাংলাদেশ</t>
+  </si>
+  <si>
+    <t>dhaka ftp</t>
+  </si>
+  <si>
+    <t>university</t>
+  </si>
+  <si>
+    <t>University of Asia Pacific
+ইউনিভার্সিটি অব এশিয়া প্যাসিফিক | ইউএপি — ইউনিভার্সিটি, ঢাকা, বাংলাদেশ</t>
+  </si>
+  <si>
+    <t>university of saskatchewan</t>
+  </si>
+  <si>
+    <t>cricket</t>
+  </si>
+  <si>
+    <t>cricket live
+পরবর্তী খেলা: নিউজিল্যান্ড বনাম শ্রীলঙ্কা - ২৯ অক্টোবর ২:০০ PM GMT +৬</t>
+  </si>
+  <si>
+    <t>bombay</t>
+  </si>
+  <si>
+    <t>Bombay Velvet
+বোম্বে ভেলভেট — ২০১৫ সালের চলচ্চিত্র</t>
+  </si>
+  <si>
+    <t>football</t>
+  </si>
+  <si>
+    <t>football world cup 2022 schedule</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>paper io
+পেপার.আইও — ভিডিও গেম সিরিজ</t>
+  </si>
+  <si>
+    <t>knife</t>
+  </si>
+  <si>
+    <t>knife sharpener price in bangladesh</t>
   </si>
 </sst>
 </file>
@@ -442,7 +498,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -451,7 +507,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -472,6 +528,125 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
